--- a/PRODUCT LIST.xlsx
+++ b/PRODUCT LIST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Django Products\DHARAMRAJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Django Products\DHARAMRAJ\DHARAMRAJ 0.0.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Product Code</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>Available Stock</t>
+  </si>
+  <si>
+    <t>Minimum Stock Range</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,9 +710,10 @@
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +735,11 @@
       <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -752,8 +759,11 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -773,8 +783,11 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -794,8 +807,11 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -815,8 +831,11 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -836,8 +855,11 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -857,8 +879,11 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -878,8 +903,11 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -899,8 +927,11 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -920,8 +951,11 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -941,8 +975,11 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -962,8 +999,11 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -983,8 +1023,11 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1004,8 +1047,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1025,8 +1071,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1046,8 +1095,11 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1067,8 +1119,11 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1088,8 +1143,11 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1109,8 +1167,11 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1130,8 +1191,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1151,8 +1215,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1172,8 +1239,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1193,8 +1263,11 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1214,8 +1287,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1235,8 +1311,11 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1256,8 +1335,11 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -1277,8 +1359,11 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -1298,8 +1383,11 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1319,8 +1407,11 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -1340,8 +1431,11 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1361,8 +1455,11 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
@@ -1382,8 +1479,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1403,8 +1503,11 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1424,8 +1527,11 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1445,8 +1551,11 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -1466,8 +1575,11 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1487,8 +1599,11 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -1508,8 +1623,11 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -1529,8 +1647,11 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
@@ -1550,8 +1671,11 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -1571,8 +1695,11 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
@@ -1591,6 +1718,9 @@
       </c>
       <c r="G42" s="3">
         <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
